--- a/biology/Zoologie/Faune_de_la_Laponie/Faune_de_la_Laponie.xlsx
+++ b/biology/Zoologie/Faune_de_la_Laponie/Faune_de_la_Laponie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faune de la Laponie est l'ensemble des espèces animales que l'on trouve dans cette région s'étendant dans le nord de la Norvège, de la Suède, de la Finlande et de la Russie.
 Parmi les animaux les plus emblématiques de la Laponie se trouve le renne. Les populations de ce mammifère sont difficilement estimables puisqu'une grande partie des animaux peuvent être considérés comme partiellement domestiqués (400 000 têtes pour la seule Laponie suédoise). 
